--- a/data/trans_camb/P16A13-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.3495075045124002</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.602680482198096</v>
+        <v>2.602680482198097</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>3.775662053520247</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3197654482625437</v>
+        <v>0.1494748012463732</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.660448827560926</v>
+        <v>-2.647071007662748</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.707062844309704</v>
+        <v>-0.5216205258528429</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1786550453311984</v>
+        <v>0.4594516640046294</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.67807285887944</v>
+        <v>1.628631540439597</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.230730629919309</v>
+        <v>-1.349839539741928</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.359594399217475</v>
+        <v>1.28582646493405</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.582769868799659</v>
+        <v>0.5779271320736753</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04456679409504856</v>
+        <v>0.05475367020868325</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.044349182253351</v>
+        <v>8.346476246692266</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.033277718689332</v>
+        <v>2.866334000301367</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.816408215909314</v>
+        <v>6.077152623782235</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.632491844512234</v>
+        <v>7.382833788363385</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.44230916112299</v>
+        <v>9.396343149660938</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.852860224743952</v>
+        <v>3.821081827195687</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.796639458008033</v>
+        <v>6.557098384490725</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.358105268500387</v>
+        <v>5.616607989409355</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.340944553752879</v>
+        <v>4.288697531537811</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1354054133134867</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1.008324633562981</v>
+        <v>1.008324633562982</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.354999180048763</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.116657839447928</v>
+        <v>-0.0908210519545132</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6578792757154182</v>
+        <v>-0.6710196345117257</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2921184891071923</v>
+        <v>-0.2472529431180317</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.08270382012773196</v>
+        <v>-0.04808669570174158</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3468769744613563</v>
+        <v>0.1790155502016302</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3253489258358599</v>
+        <v>-0.3327675708586803</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2877468646126547</v>
+        <v>0.266300621131952</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.06044759678630007</v>
+        <v>0.04171560650007414</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.01233384853364116</v>
+        <v>-0.05338657099443559</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>7.012384071031976</v>
+        <v>6.682421959772261</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.336005249686068</v>
+        <v>2.202738588022276</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.228346163791601</v>
+        <v>5.096785180611216</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.617069444680626</v>
+        <v>6.060560956665125</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>6.971727355057867</v>
+        <v>6.740994583979547</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.944784536202812</v>
+        <v>3.475502851512966</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.945221172325089</v>
+        <v>3.651081793466091</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.037285308397172</v>
+        <v>3.080693638099718</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.621054164639947</v>
+        <v>2.475185412637625</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.235664319995066</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.9262842775325565</v>
+        <v>-0.9262842775325562</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.295463917070933</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9445331138332991</v>
+        <v>-0.8575929064346057</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.54851899679717</v>
+        <v>-3.347919500097423</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.292373803969241</v>
+        <v>-3.130626631871674</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.336231205356076</v>
+        <v>-0.4848503436069181</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.225969524192356</v>
+        <v>-4.211294692100375</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.764907033250581</v>
+        <v>-2.94471412235772</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06631139882339189</v>
+        <v>0.1104335519423649</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.181368332109152</v>
+        <v>-3.293680702209493</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.308958972494536</v>
+        <v>-2.399184568287702</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.149599031674548</v>
+        <v>4.407462823698396</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8697697600126824</v>
+        <v>0.7587679012696542</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.230549263864651</v>
+        <v>1.16133440698282</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.084563214260142</v>
+        <v>5.061907296230644</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.3000635477125257</v>
+        <v>-0.1707277388923014</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.644101153956454</v>
+        <v>1.388522138234103</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.837426149328458</v>
+        <v>4.036443931892806</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.1097487034909457</v>
+        <v>-0.2683698817370941</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8431817442128154</v>
+        <v>0.8816617673714624</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.3577620377575329</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.2681871972107561</v>
+        <v>-0.268187197210756</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.6122970134346999</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2341775459480666</v>
+        <v>-0.2195979748113404</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7360007246707693</v>
+        <v>-0.7197801685899007</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7007143764349821</v>
+        <v>-0.7004192967058289</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1087238499022161</v>
+        <v>-0.1313435282097024</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8367921018652628</v>
+        <v>-0.8169924969815729</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.546629097197011</v>
+        <v>-0.5547932365781515</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.006016792134562103</v>
+        <v>0.001844833069014363</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7143489633852486</v>
+        <v>-0.717665086002101</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5131310600627923</v>
+        <v>-0.519281481328312</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.833048054910668</v>
+        <v>1.969210734720583</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4779308809290375</v>
+        <v>0.3390453773232561</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5953671945382771</v>
+        <v>0.5344029694612074</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.894155165431678</v>
+        <v>1.937988371636316</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.04062496066492556</v>
+        <v>-0.01518094374636956</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6970626367833339</v>
+        <v>0.5456063332155975</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.32922900380217</v>
+        <v>1.463054174542575</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.05858971785950633</v>
+        <v>-0.05013519439682079</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2870124678936105</v>
+        <v>0.3430771075070729</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2680902963169169</v>
+        <v>-0.2040571625519773</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.476646197313493</v>
+        <v>-1.556501155312243</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.89966330908571</v>
+        <v>5.954559143193356</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.762398710111868</v>
+        <v>-2.65636661218508</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.419671930056175</v>
+        <v>-4.316643171364678</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>9.138106930409167</v>
+        <v>9.330098487313059</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.011409335084109</v>
+        <v>-0.5894568008640325</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.441298472617396</v>
+        <v>-2.449583732410667</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>8.721949346343763</v>
+        <v>8.731733143869587</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.520230181092902</v>
+        <v>5.446537419569119</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.614536452743629</v>
+        <v>2.394297467246497</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.90605576612994</v>
+        <v>12.98036683996833</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.448473521869545</v>
+        <v>3.174781787985958</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5210296078250694</v>
+        <v>0.6709967185321041</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>16.24379298465651</v>
+        <v>16.44617650851692</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.30703377586498</v>
+        <v>3.413107882728597</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.015367527992164</v>
+        <v>0.7869039818192589</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>13.67471342712374</v>
+        <v>13.62646873143768</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.2784613752700036</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4.220281481240835</v>
+        <v>4.220281481240834</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3723777718929849</v>
+        <v>-0.2459963037205456</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7043788606311631</v>
+        <v>-0.7366676004169003</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1.961397069753951</v>
+        <v>1.82823282384357</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5373818142333533</v>
+        <v>-0.5200554415281458</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.854224282326539</v>
+        <v>-0.8550229488823534</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.547448062962911</v>
+        <v>1.641954392830461</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.29595282960449</v>
+        <v>-0.2116759275126779</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6895967069796545</v>
+        <v>-0.6720957117061765</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>2.066169607133878</v>
+        <v>2.241196433444399</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>7.662343877877332</v>
+        <v>8.058993526021307</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>5.298863987186606</v>
+        <v>4.464928972698804</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>22.17501244709292</v>
+        <v>19.61026463352173</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.435785606843943</v>
+        <v>1.357936780599351</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3177183476763834</v>
+        <v>0.3391460394697574</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>7.300138323164343</v>
+        <v>7.247697496346032</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.902575515709712</v>
+        <v>1.835227063390806</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6063204376287677</v>
+        <v>0.5252377392097307</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>7.752546027933609</v>
+        <v>7.735015740259572</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>2.500789419204949</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.278009912359712</v>
+        <v>4.27800991235971</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.718834221438755</v>
@@ -1297,7 +1297,7 @@
         <v>3.510179048827659</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>5.619702159164529</v>
+        <v>5.619702159164532</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.995791637554114</v>
@@ -1306,7 +1306,7 @@
         <v>3.022886931723984</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.038015748557023</v>
+        <v>5.038015748557021</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.886384549445094</v>
+        <v>-1.992126887419798</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.05268997574929191</v>
+        <v>-0.08543534246257263</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.722419828423109</v>
+        <v>1.727252977959109</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4653445460926064</v>
+        <v>0.4515454597236169</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.1983781649858989</v>
+        <v>0.1522284766236062</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.324643708599142</v>
+        <v>2.659876614968313</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.1233765373094943</v>
+        <v>-0.05751564166831034</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6642541680152918</v>
+        <v>0.9677949353342612</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.126405982330633</v>
+        <v>2.894917254125822</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.46808250313729</v>
+        <v>2.507103405376457</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.749383358271831</v>
+        <v>5.134321955104714</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.551756626087919</v>
+        <v>7.866571158921766</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.316432390828571</v>
+        <v>7.016189044309574</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.402144043494972</v>
+        <v>7.512680310457753</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.386776067304684</v>
+        <v>8.747745745421875</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.063934222020844</v>
+        <v>4.21780588899216</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.398747415781751</v>
+        <v>5.675156150131279</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.314696510790353</v>
+        <v>7.060388261160065</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>1.235817497341008</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>2.114068246967071</v>
+        <v>2.11406824696707</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.8833624328031412</v>
@@ -1402,7 +1402,7 @@
         <v>0.8337990132153256</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>1.334889773340868</v>
+        <v>1.334889773340869</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.6364399269472167</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7143761078536078</v>
+        <v>-0.7047804277986159</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.165651102495166</v>
+        <v>-0.1204384475929799</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3763937589374351</v>
+        <v>0.2852227241450632</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.05118842033985867</v>
+        <v>0.02359637549374273</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.07302482522179041</v>
+        <v>-0.01902646121384485</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3337548041506302</v>
+        <v>0.4323633048908252</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.04148971000456311</v>
+        <v>-0.0222894121291402</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1064146371525291</v>
+        <v>0.1890696131987521</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.7020083780659534</v>
+        <v>0.6600088770195074</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.466809333278885</v>
+        <v>2.677970246447901</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5.301489675754229</v>
+        <v>4.250067416169981</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7.323572301005198</v>
+        <v>6.883229490845837</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.685601099739401</v>
+        <v>2.425023258168328</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.43569852934141</v>
+        <v>2.575626094551259</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.881000829467663</v>
+        <v>3.109827270896403</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.77836724117724</v>
+        <v>1.911475210233003</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.283988736252885</v>
+        <v>2.352481758141122</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>3.268155739357589</v>
+        <v>3.292870855560888</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.112319509495612</v>
+        <v>1.988105167819914</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.825879761633884</v>
+        <v>-2.688206322167623</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6.827594604605746</v>
+        <v>6.983352114865527</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.515526288586693</v>
+        <v>-1.239883260227503</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.557745874334945</v>
+        <v>-4.518553325040122</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>11.54080025369293</v>
+        <v>11.30339275829811</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.693961320607224</v>
+        <v>1.66770344649891</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.833673069631863</v>
+        <v>-2.724603554630027</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>10.47923243256984</v>
+        <v>10.50186603699495</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.52898929940685</v>
+        <v>10.90945042616581</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.895104185153322</v>
+        <v>2.046742474764855</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14.5665465965441</v>
+        <v>15.07281122106006</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.062533040807592</v>
+        <v>8.383887052154732</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.728481380592602</v>
+        <v>2.592809057871512</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>20.17792124569672</v>
+        <v>20.27906460250703</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>7.526814559305266</v>
+        <v>7.833286434376975</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.613723742628048</v>
+        <v>1.662148740255264</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>16.67583394393387</v>
+        <v>16.59970570767543</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.2245207761906064</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>5.75539261138905</v>
+        <v>5.755392611389048</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.7622143463631108</v>
@@ -1616,7 +1616,7 @@
         <v>-0.1864913014716187</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>4.030000195462112</v>
+        <v>4.03000019546211</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>1.560129438495473</v>
@@ -1625,7 +1625,7 @@
         <v>-0.1963507002676964</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>4.619367113401571</v>
+        <v>4.61936711340157</v>
       </c>
     </row>
     <row r="32">
@@ -1636,29 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2393808770368215</v>
-      </c>
-      <c r="D32" s="6" t="inlineStr"/>
+        <v>0.363839790969462</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="E32" s="6" t="n">
-        <v>1.629918397293884</v>
+        <v>1.375447748269184</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3077329854758403</v>
+        <v>-0.3003000324821826</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.7251675875681382</v>
+        <v>-0.7378079617800466</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.703306128433139</v>
+        <v>1.531534199582091</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.397909673778124</v>
+        <v>0.3414290430188016</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.6853898819499467</v>
+        <v>-0.6653307163060578</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>2.048217928861962</v>
+        <v>2.252334871792624</v>
       </c>
     </row>
     <row r="33">
@@ -1669,29 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>14.42537919961496</v>
-      </c>
-      <c r="D33" s="6" t="inlineStr"/>
+        <v>19.73217565390842</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>6.354553394638983</v>
+      </c>
       <c r="E33" s="6" t="n">
-        <v>23.84020073883101</v>
+        <v>21.12486023953812</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>3.701409900806651</v>
+        <v>4.025866286573383</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.263801875559517</v>
+        <v>1.262237217815688</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>10.6266099611642</v>
+        <v>9.701672517529497</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>4.199399240108397</v>
+        <v>4.626206748947845</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.135330177238681</v>
+        <v>1.055428849831793</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>9.192077554603543</v>
+        <v>9.676125437364117</v>
       </c>
     </row>
     <row r="34">
@@ -1721,7 +1725,7 @@
         <v>-1.858259487419009</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>11.60132663586552</v>
+        <v>11.60132663586551</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>1.471668085824231</v>
@@ -1741,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.4161051102060201</v>
+        <v>0.1997056572586308</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.118098822258724</v>
+        <v>-1.1459653459972</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>7.792037671155342</v>
+        <v>8.582862981904228</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.985673261150966</v>
+        <v>-3.699391342360229</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.135925371074656</v>
+        <v>-4.888651499909959</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>7.854627425544631</v>
+        <v>7.861064662034503</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.6290002603006704</v>
+        <v>-0.7855366641563536</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.335874809811979</v>
+        <v>-2.514469841595095</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>9.104935859581664</v>
+        <v>9.111014097603643</v>
       </c>
     </row>
     <row r="36">
@@ -1776,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>6.664853398895584</v>
+        <v>7.021027300467997</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.02656715148708</v>
+        <v>4.096316289241969</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>15.45351418525364</v>
+        <v>15.73479409197006</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.60773737103659</v>
+        <v>2.816147676745812</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.034452966348283</v>
+        <v>1.142799405495702</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>15.51301402324068</v>
+        <v>15.23079504073205</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.014792151090117</v>
+        <v>3.806837116095615</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.812153955993315</v>
+        <v>1.613370350044394</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>14.15297767978707</v>
+        <v>14.40245919852618</v>
       </c>
     </row>
     <row r="37">
@@ -1826,7 +1830,7 @@
         <v>-0.437690868962587</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>2.732554183497528</v>
+        <v>2.732554183497526</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.4809599261884631</v>
@@ -1846,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1351181407148679</v>
+        <v>-0.1951851008314337</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4555754340045967</v>
+        <v>-0.5226467925536598</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1.912979416018401</v>
+        <v>2.32540444200606</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.6784393997446615</v>
+        <v>-0.625602084019475</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.8384226225386731</v>
+        <v>-0.8269932078797968</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1.134247547890608</v>
+        <v>1.097627198146639</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1827387366910986</v>
+        <v>-0.2093665308171526</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.5667651957889868</v>
+        <v>-0.6100708186988909</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>2.087820082656557</v>
+        <v>1.997175831847653</v>
       </c>
     </row>
     <row r="39">
@@ -1881,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>7.681531328033157</v>
+        <v>7.689933887208541</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>5.269636781493653</v>
+        <v>5.260669398665521</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>19.42925696404662</v>
+        <v>18.66296732147231</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.019692943859422</v>
+        <v>1.193079915253666</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.5512717801624364</v>
+        <v>0.7586425694585399</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>6.045033948470069</v>
+        <v>5.935113395353056</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2.047271119383446</v>
+        <v>1.916184108606972</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.9916622943592937</v>
+        <v>0.856895026720266</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>7.302063892498723</v>
+        <v>7.474889823382759</v>
       </c>
     </row>
     <row r="40">
@@ -1944,7 +1948,7 @@
         <v>0.5089330969136385</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>3.539731843658911</v>
+        <v>3.539731843658912</v>
       </c>
     </row>
     <row r="41">
@@ -1955,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.614004025145757</v>
+        <v>-1.830424236792843</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.222846082978314</v>
+        <v>-1.590593810592647</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.5893009830120106</v>
+        <v>0.3898339216063183</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.74332411906578</v>
+        <v>-1.910068411487712</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.147957665877575</v>
+        <v>-2.27453063025167</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.826327753257604</v>
+        <v>1.682238452253739</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.05958887674218</v>
+        <v>-1.141874889178014</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.173914078670073</v>
+        <v>-1.152302582302951</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>2.003159370055015</v>
+        <v>1.898067198040772</v>
       </c>
     </row>
     <row r="42">
@@ -1990,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.439810943851372</v>
+        <v>2.486626707271995</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.104930731189578</v>
+        <v>2.980073545745743</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.085967800963926</v>
+        <v>4.812714095669147</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.025226056459363</v>
+        <v>2.831637205666164</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.734245023129035</v>
+        <v>2.428757560987627</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>6.458431166562175</v>
+        <v>6.596397777201846</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.004042835400226</v>
+        <v>2.047482419221373</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.026966258979931</v>
+        <v>2.30299148768638</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.284926254467718</v>
+        <v>5.22239229934513</v>
       </c>
     </row>
     <row r="43">
@@ -2049,7 +2053,7 @@
         <v>0.1304306313832527</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.9071712217100741</v>
+        <v>0.9071712217100745</v>
       </c>
     </row>
     <row r="44">
@@ -2060,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4101491533499425</v>
+        <v>-0.4500778629599888</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3154850692537397</v>
+        <v>-0.3663665848096306</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.09217787393670125</v>
+        <v>0.06530900230316682</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.3154014855269077</v>
+        <v>-0.3309960306831555</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3697512253642418</v>
+        <v>-0.4112595875924994</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.288182159944514</v>
+        <v>0.2692369335297173</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2462424091259353</v>
+        <v>-0.2352680658770104</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2651524683321731</v>
+        <v>-0.2519734911603123</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.4071396457521276</v>
+        <v>0.4026399852716151</v>
       </c>
     </row>
     <row r="45">
@@ -2095,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.191014839073129</v>
+        <v>1.122551424815581</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.535698175313442</v>
+        <v>1.401080355189576</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.35199501434289</v>
+        <v>2.247327514415113</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.8451941154605336</v>
+        <v>0.8003853094726309</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.7243461664319821</v>
+        <v>0.6737329078564569</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.809769461102918</v>
+        <v>1.854680276052427</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6258178799529325</v>
+        <v>0.6551440915385167</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.6316645316088118</v>
+        <v>0.7223983309721325</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.736860753354947</v>
+        <v>1.737624634302998</v>
       </c>
     </row>
     <row r="46">
@@ -2149,7 +2153,7 @@
         <v>1.071337841079357</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>0.8201504949687775</v>
+        <v>0.8201504949687778</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>0.7298548760126845</v>
@@ -2158,7 +2162,7 @@
         <v>0.3693092077635546</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0.6639537882745982</v>
+        <v>0.6639537882745988</v>
       </c>
     </row>
     <row r="47">
@@ -2169,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.243618798889328</v>
+        <v>-2.041104779898258</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.20780036031153</v>
+        <v>-2.043166132596411</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.17585379756868</v>
+        <v>-1.281548811915407</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.08058471122967074</v>
+        <v>-0.02904680849976734</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.5243180550285904</v>
+        <v>-0.7617137092007777</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.8099705273655075</v>
+        <v>-0.8289239367587133</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.4903065117466248</v>
+        <v>-0.5269232198327085</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.8376959678440093</v>
+        <v>-0.7645658203727468</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.4521728609181743</v>
+        <v>-0.4470418728737722</v>
       </c>
     </row>
     <row r="48">
@@ -2204,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.47860176586799</v>
+        <v>1.438014990639765</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.339050020846696</v>
+        <v>1.383690011317751</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.181029688917828</v>
+        <v>2.129110208858492</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.753059894412776</v>
+        <v>3.890020186478576</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.814085485671006</v>
+        <v>2.751961148600407</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.194482778451435</v>
+        <v>2.060731852269383</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.027136895727766</v>
+        <v>1.899637231902291</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.693149029724335</v>
+        <v>1.584795614556511</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.727951034127438</v>
+        <v>1.749318112805104</v>
       </c>
     </row>
     <row r="49">
@@ -2254,7 +2258,7 @@
         <v>0.4764825656538084</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.364765806901072</v>
+        <v>0.3647658069010722</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.2788774140565972</v>
@@ -2263,7 +2267,7 @@
         <v>0.1411129804476373</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.2536966205373181</v>
+        <v>0.2536966205373184</v>
       </c>
     </row>
     <row r="50">
@@ -2274,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.5721051427190181</v>
+        <v>-0.5343592534350654</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.5804623740217721</v>
+        <v>-0.5544258658120634</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3019815575932752</v>
+        <v>-0.3474982538031408</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.0001809392791775825</v>
+        <v>-0.037279453875477</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2177363723687072</v>
+        <v>-0.2897017939977558</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.2914477442320495</v>
+        <v>-0.2526373102860618</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.1557242804996141</v>
+        <v>-0.1797772551562835</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.274582621078638</v>
+        <v>-0.2576300287452143</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1484639995872682</v>
+        <v>-0.1599690366747923</v>
       </c>
     </row>
     <row r="51">
@@ -2309,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.6417896716376295</v>
+        <v>0.6814065006418987</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.6139050539114445</v>
+        <v>0.6313423257071046</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.966995473626685</v>
+        <v>0.9602190053180187</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>2.566693024482742</v>
+        <v>2.431229526237915</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.851839646179076</v>
+        <v>1.810538997337685</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.426024334815146</v>
+        <v>1.421399813483443</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.9665944817535196</v>
+        <v>0.9354254353115563</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.7689341942070107</v>
+        <v>0.7672394553124995</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.8345892373245604</v>
+        <v>0.8549871866997876</v>
       </c>
     </row>
     <row r="52">
@@ -2354,7 +2358,7 @@
         <v>0.2955750759103672</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>3.596029283761183</v>
+        <v>3.596029283761182</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>1.7644611304944</v>
@@ -2363,7 +2367,7 @@
         <v>0.4604791787563046</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>4.783265305043903</v>
+        <v>4.783265305043905</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>1.617922061999908</v>
@@ -2383,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.6766962548122695</v>
+        <v>0.635593851058779</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.4498530338167657</v>
+        <v>-0.5570116995641137</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>2.734322242559363</v>
+        <v>2.687442135613829</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>0.7859558671164277</v>
+        <v>0.7894670149808489</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.410929467310847</v>
+        <v>-0.4004839147109896</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>3.797294001341939</v>
+        <v>3.824081585927485</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>0.9245173727179744</v>
+        <v>0.9642944945294466</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-0.2573931278123491</v>
+        <v>-0.2473238250052905</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>3.510761250302235</v>
+        <v>3.538058380614235</v>
       </c>
     </row>
     <row r="54">
@@ -2418,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>2.489750172835961</v>
+        <v>2.464013287518892</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.177226137418466</v>
+        <v>1.08871736825118</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>4.61010417452581</v>
+        <v>4.507242167708733</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>2.82530457745507</v>
+        <v>2.859230706271907</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>1.443990704722173</v>
+        <v>1.473892583680909</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>5.634316796634335</v>
+        <v>5.693469673392845</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>2.329392246702045</v>
+        <v>2.307771099406982</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>1.034131124944002</v>
+        <v>0.9597336370279574</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>4.866184991825389</v>
+        <v>4.843944781871276</v>
       </c>
     </row>
     <row r="55">
@@ -2459,7 +2463,7 @@
         <v>0.1118032172414793</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>1.360221737170401</v>
+        <v>1.3602217371704</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.4908513747626347</v>
@@ -2488,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.2134846986805598</v>
+        <v>0.2093235735351092</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.152776632900527</v>
+        <v>-0.2002432083091197</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.8775490456890744</v>
+        <v>0.8394283235267466</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.1943102852192904</v>
+        <v>0.1900595632299419</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.1145611959115118</v>
+        <v>-0.09957205767884331</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.8921382615205895</v>
+        <v>0.9053565102136306</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2603136181645762</v>
+        <v>0.2804572407063612</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.0763139817258502</v>
+        <v>-0.07890097912885655</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>1.005232005065044</v>
+        <v>1.020430623992263</v>
       </c>
     </row>
     <row r="57">
@@ -2523,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>1.081298843250033</v>
+        <v>1.077579283164272</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.541452035363106</v>
+        <v>0.4755634689665724</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>2.123510890368582</v>
+        <v>1.996460302915254</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.8871811570832472</v>
+        <v>0.9093646316020491</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.4541331623233845</v>
+        <v>0.4650898859129645</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>1.815976810239168</v>
+        <v>1.858609501580541</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.8231101304416877</v>
+        <v>0.8367830719122428</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.3723359938493628</v>
+        <v>0.328688551824239</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>1.738177585663454</v>
+        <v>1.734042194733735</v>
       </c>
     </row>
     <row r="58">
